--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1710505.506918893</v>
+        <v>-1712921.026419038</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.4801851814454</v>
       </c>
       <c r="H2" t="n">
-        <v>93.0202004417571</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>91.02620481953414</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>91.64320599465407</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.95369569505497</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>125.8092116959088</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5047857517249</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.5363772676616</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.05061899147582</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.706926911161728</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>91.67292334865954</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4.646399409811197</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>36.16060834010637</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819354</v>
+        <v>116.9402131039069</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>174.0675174389557</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>53.76383281196574</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>19.36824379237553</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.90980360754112</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>176.6774420022485</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.00433147567353</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951282</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>274.6773490366245</v>
+        <v>214.5355670139676</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800365</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
@@ -2965,7 +2965,7 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572928</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124551</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,16 +4141,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124554</v>
@@ -4183,25 +4183,25 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302.942636240984</v>
+        <v>1574.702472182508</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.942636240984</v>
+        <v>1205.739955242096</v>
       </c>
       <c r="D2" t="n">
-        <v>944.6769376342336</v>
+        <v>1205.739955242096</v>
       </c>
       <c r="E2" t="n">
-        <v>558.8886850359893</v>
+        <v>1205.739955242096</v>
       </c>
       <c r="F2" t="n">
-        <v>147.9027802463817</v>
+        <v>794.7540504524884</v>
       </c>
       <c r="G2" t="n">
-        <v>147.9027802463817</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2351.441644222441</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2351.441644222441</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>2351.441644222441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1689.542476305106</v>
+        <v>1961.302312246629</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
         <v>222.942782082032</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>601.0489723923852</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>601.0489723923852</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931987</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.914798597272</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.914798597272</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>951.1265459990282</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782191</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>418.7159459272334</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>160.465298355167</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>146.5418942937579</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>146.5418942937579</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2418.792401783595</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2087.729514440025</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2087.729514440025</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1714.263756178945</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3338608103785</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>248.2172213980428</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037953</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2749.9835782646</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3629.948228594054</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4343.303316041</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.6138567886371</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607302</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208135</v>
       </c>
       <c r="W13" t="n">
-        <v>1045.044451660423</v>
+        <v>999.1036114208135</v>
       </c>
       <c r="X13" t="n">
-        <v>817.0549007624051</v>
+        <v>771.1140605227962</v>
       </c>
       <c r="Y13" t="n">
-        <v>596.2623216188749</v>
+        <v>550.3214813792661</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.417082105038</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>3999.389552984375</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089896</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.4807149410336</v>
+        <v>880.1664592079834</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>711.2302762800765</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>561.1136368677408</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1715.012968055669</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V16" t="n">
-        <v>1460.328479849782</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.911309812821</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X16" t="n">
-        <v>942.9217589148035</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.1291797712734</v>
+        <v>880.1664592079834</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>755.2936629429144</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1556.114788045695</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.724257814702</v>
+        <v>1301.430299839808</v>
       </c>
       <c r="W19" t="n">
-        <v>1385.724257814702</v>
+        <v>1012.013129802848</v>
       </c>
       <c r="X19" t="n">
-        <v>1157.734706916684</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.9421277731541</v>
+        <v>784.0235789048305</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644074</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5844,25 +5844,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1938.157272694933</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.157272694933</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1649.054405820576</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1649.054405820576</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.637235783616</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>1131.647684885598</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.8551057420682</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,22 +5990,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.7144041584436</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1175.608641544821</v>
+        <v>1236.357916315183</v>
       </c>
       <c r="V25" t="n">
-        <v>920.9241533389343</v>
+        <v>981.6734281092956</v>
       </c>
       <c r="W25" t="n">
-        <v>631.5069833019737</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X25" t="n">
-        <v>631.5069833019737</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.7144041584436</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,7 +6212,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6221,55 +6221,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6379,7 +6379,7 @@
         <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6598,19 +6598,19 @@
         <v>788.5151678215063</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160457</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819757</v>
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3819.938960973982</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4214.71332733116</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932523</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
         <v>437.6816203490196</v>
@@ -6871,37 +6871,37 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P34" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719036</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3008.107474639231</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3511.079945518568</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4224.435032965514</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4682.913235474502</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215049</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E37" t="n">
         <v>463.8981507430893</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7114,31 +7114,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.748013620956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3348.500285847603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3851.47275672694</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7360,7 +7360,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195773</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1729.091615892343</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2707.641918722172</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,19 +7488,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430888</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819754</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,19 +7591,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849072</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770975</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2383.057343890768</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3362.809616117414</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,40 +7807,40 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490199</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>241.9338129178271</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.7323010770063</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,19 +8936,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
-        <v>11.641534435788</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>217.5991828955669</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M20" t="n">
-        <v>89.52456338961838</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>161.8544041422913</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>288.0478149561022</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>249.451501837949</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.9047586887105</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>36.48628322062233</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>226.7688596193122</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>342.3170758598135</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>201.3549853008769</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>236.7260536506008</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>294.5947326613995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.8782844868823</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.8917670780304</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>112.4554808976353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>92.67012983460343</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>266.8435944132373</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>99.33701749108671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>109.5343962033643</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>171.7646938557684</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>16.14213605696662</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>11.53448916898839</v>
+        <v>71.67627119164524</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-8.678984734693975e-14</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1204756.245991021</v>
+        <v>1204756.245991022</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1307871.385772205</v>
+        <v>1307871.385772206</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1307871.385772205</v>
+        <v>1307871.385772206</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1307871.385772205</v>
+        <v>1307871.385772206</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89266.66910111631</v>
+        <v>89266.66910111633</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,28 +26320,28 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
+        <v>99270.4467217458</v>
+      </c>
+      <c r="F2" t="n">
         <v>99270.44672174577</v>
       </c>
-      <c r="F2" t="n">
-        <v>99270.44672174583</v>
-      </c>
       <c r="G2" t="n">
-        <v>99270.44672174573</v>
+        <v>99270.44672174576</v>
       </c>
       <c r="H2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174579</v>
       </c>
       <c r="I2" t="n">
         <v>99270.44672174579</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102630.2212330352</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330353</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102630.2212330353</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330354</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="P4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33605.65329740895</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.653297409</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33605.65329740901</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33605.65329740895</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705889.1704776584</v>
+        <v>-706156.4415202969</v>
       </c>
       <c r="C6" t="n">
         <v>-163577.543687502</v>
@@ -26528,40 +26528,40 @@
         <v>-163577.543687502</v>
       </c>
       <c r="E6" t="n">
-        <v>-742638.9778445646</v>
+        <v>-742706.1733347903</v>
       </c>
       <c r="F6" t="n">
-        <v>-15261.56385115777</v>
+        <v>-15328.75934138362</v>
       </c>
       <c r="G6" t="n">
-        <v>-15261.56385115783</v>
+        <v>-15328.75934138362</v>
       </c>
       <c r="H6" t="n">
-        <v>-15261.56385115781</v>
+        <v>-15328.75934138358</v>
       </c>
       <c r="I6" t="n">
-        <v>-15261.56385115781</v>
+        <v>-15328.75934138361</v>
       </c>
       <c r="J6" t="n">
-        <v>-245311.4315659428</v>
+        <v>-245311.4315659427</v>
       </c>
       <c r="K6" t="n">
+        <v>-31308.10307847588</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-31308.10307847579</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-160950.4179174204</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-31308.10307847567</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-68888.2123733498</v>
+      </c>
+      <c r="P6" t="n">
         <v>-31308.10307847573</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-31308.10307847572</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-160950.4179174205</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-31308.10307847569</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-68888.21237334974</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-31308.10307847564</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>4.303984839349539</v>
       </c>
       <c r="H2" t="n">
-        <v>230.9025723226001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>126.3284316279192</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>256.3712599899866</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>6.215881202473327</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>102.196202107152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>284.8160714254293</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>60.25839289620171</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>246.5777680984781</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>110.2733543064628</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28056,7 +28056,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138783</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>697.523927310159</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>379.5266058807258</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>410.4035206551599</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>769.9010183084783</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M20" t="n">
-        <v>628.4456792198451</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>714.1562395552025</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>840.3496503690137</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>648.2134880573209</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.69906349243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>96.09948176284705</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>625.5308458386838</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>797.9071902521455</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>740.2761011311039</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340041</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
